--- a/API_1/data/cases.xlsx
+++ b/API_1/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -427,21 +427,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -453,16 +453,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -475,7 +467,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -488,7 +487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -496,12 +495,6 @@
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -519,6 +512,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -529,19 +529,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,19 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,37 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +687,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -698,6 +707,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +750,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -749,24 +776,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -775,15 +784,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,139 +798,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,34 +998,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1374,7 +1374,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
@@ -1598,7 +1598,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
